--- a/data/1-source/05 A Dance With Dragons.xlsx
+++ b/data/1-source/05 A Dance With Dragons.xlsx
@@ -2440,7 +2440,7 @@
     <t xml:space="preserve">Hamish the Harper</t>
   </si>
   <si>
-    <t xml:space="preserve">CHAPTER 55 (BARRISTAN I - "THE QUEENSGUARD" AF p 225</t>
+    <t xml:space="preserve">CHAPTER 55 (BARRISTAN I - "THE QUEENSGUARD") AF p 225</t>
   </si>
   <si>
     <t xml:space="preserve">Denys Darklyn</t>
@@ -3135,11 +3135,11 @@
   <dimension ref="A1:AMJ2798"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1432" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2089" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A1432" activeCellId="0" sqref="A1432"/>
-      <selection pane="bottomRight" activeCell="D1432" activeCellId="0" sqref="D1432"/>
+      <selection pane="bottomLeft" activeCell="A2089" activeCellId="0" sqref="A2089"/>
+      <selection pane="bottomRight" activeCell="A2098" activeCellId="0" sqref="A2098"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
